--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Url</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>6 - 9 DAYS</t>
+  </si>
+  <si>
+    <t>Puerto</t>
+  </si>
+  <si>
+    <t>Barbados</t>
   </si>
 </sst>
 </file>
@@ -362,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -391,12 +397,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>